--- a/data/trans_orig/P14B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E4A602-5E9B-4991-B705-A14EF67F7A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055A9E1C-0C5E-4149-9640-42C90C400B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBE73992-29EE-4CCF-BF81-E3CD4B28130A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA9220C-7256-4552-97CE-DD9FD22D306B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>64,73%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>35,21%</t>
@@ -148,19 +148,19 @@
     <t>37,93%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>80,98%</t>
@@ -169,25 +169,25 @@
     <t>64,79%</t>
   </si>
   <si>
-    <t>93,45%</t>
+    <t>93,54%</t>
   </si>
   <si>
     <t>62,07%</t>
   </si>
   <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,538 +196,550 @@
     <t>63,58%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>36,42%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>46,8%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
   </si>
   <si>
     <t>54,38%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>45,62%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>44,02%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>36,2%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
   </si>
   <si>
     <t>33,64%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>63,8%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>66,36%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>46,38%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
   </si>
   <si>
     <t>66,77%</t>
   </si>
   <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>69,25%</t>
   </si>
   <si>
-    <t>53,62%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>60,34%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411FCED1-CB5B-46B0-8789-E03C81B119B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BBF460-1AF4-4D24-9A64-31EDFFB031DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1890,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCC6A08-DC62-4849-A31E-F64B66698B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17562DE-2601-4A63-B8F0-9220D9C3831E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2641,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C229435F-C353-4D51-8688-08CCDD986AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF4F9F-39A1-41E7-A770-E54992C3CBD6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2765,13 +2777,13 @@
         <v>15540</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2780,13 +2792,13 @@
         <v>28783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2795,13 +2807,13 @@
         <v>44324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2828,13 @@
         <v>13038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2831,13 +2843,13 @@
         <v>22630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -2846,13 +2858,13 @@
         <v>35668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2932,13 @@
         <v>27756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -2935,13 +2947,13 @@
         <v>34880</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -2950,13 +2962,13 @@
         <v>62636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2983,13 @@
         <v>48919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -2986,13 +2998,13 @@
         <v>74617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -3001,13 +3013,13 @@
         <v>123536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3087,13 @@
         <v>8020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3090,13 +3102,13 @@
         <v>7968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3105,13 +3117,13 @@
         <v>15988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>16118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -3141,13 +3153,13 @@
         <v>19888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -3156,13 +3168,13 @@
         <v>36006</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3242,13 @@
         <v>51316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -3245,13 +3257,13 @@
         <v>71631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3260,13 +3272,13 @@
         <v>122947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3293,13 @@
         <v>78075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -3296,13 +3308,13 @@
         <v>117135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -3311,13 +3323,13 @@
         <v>195210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055A9E1C-0C5E-4149-9640-42C90C400B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DDE866C-2262-4F8A-B526-F8E34E702137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA9220C-7256-4552-97CE-DD9FD22D306B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6574E67-1919-4BDC-867C-256A9FEA980D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>64,73%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>19,02%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>62,07%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,178 +196,178 @@
     <t>63,58%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>36,42%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población cuyo asma le limita en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -376,31 +376,31 @@
     <t>39,18%</t>
   </si>
   <si>
-    <t>62,14%</t>
+    <t>62,9%</t>
   </si>
   <si>
     <t>45,34%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>37,86%</t>
+    <t>37,1%</t>
   </si>
   <si>
     <t>60,82%</t>
@@ -409,118 +409,112 @@
     <t>54,66%</t>
   </si>
   <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>39,01%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>41,83%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>52,3%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>60,99%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>58,17%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>39,03%</t>
   </si>
   <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
@@ -583,9 +577,6 @@
     <t>36,2%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
     <t>51,8%</t>
   </si>
   <si>
@@ -613,9 +604,6 @@
     <t>48,2%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
     <t>68,15%</t>
   </si>
   <si>
@@ -706,9 +694,6 @@
     <t>44,96%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
     <t>31,57%</t>
   </si>
   <si>
@@ -731,9 +716,6 @@
   </si>
   <si>
     <t>71,33%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
   </si>
   <si>
     <t>55,46%</t>
@@ -1151,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BBF460-1AF4-4D24-9A64-31EDFFB031DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08262186-C5DA-421B-9F6B-598E9720E4F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17562DE-2601-4A63-B8F0-9220D9C3831E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A70D9-2E42-4F78-8D89-A6DFDB881DB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2497,7 +2479,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -2506,13 +2488,13 @@
         <v>84682</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
@@ -2521,13 +2503,13 @@
         <v>127874</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2524,13 @@
         <v>42993</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -2557,13 +2539,13 @@
         <v>55446</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -2572,13 +2554,13 @@
         <v>98439</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AF4F9F-39A1-41E7-A770-E54992C3CBD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311C5F41-94BE-453A-8BB0-F49BD3412446}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2670,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,13 +2759,13 @@
         <v>15540</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -2792,13 +2774,13 @@
         <v>28783</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -2807,13 +2789,13 @@
         <v>44324</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2810,13 @@
         <v>13038</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2843,13 +2825,13 @@
         <v>22630</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -2858,13 +2840,13 @@
         <v>35668</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2914,13 @@
         <v>27756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -2947,13 +2929,13 @@
         <v>34880</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -2962,13 +2944,13 @@
         <v>62636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2965,13 @@
         <v>48919</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -2998,13 +2980,13 @@
         <v>74617</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -3013,13 +2995,13 @@
         <v>123536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3069,13 @@
         <v>8020</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3102,13 +3084,13 @@
         <v>7968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -3117,13 +3099,13 @@
         <v>15988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3120,13 @@
         <v>16118</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -3153,13 +3135,13 @@
         <v>19888</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -3168,13 +3150,13 @@
         <v>36006</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3224,13 @@
         <v>51316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -3257,13 +3239,13 @@
         <v>71631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -3272,13 +3254,13 @@
         <v>122947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3275,13 @@
         <v>78075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -3308,13 +3290,13 @@
         <v>117135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -3323,13 +3305,13 @@
         <v>195210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
